--- a/Regression Modeling Results.xlsx
+++ b/Regression Modeling Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc_0\Documents\GitHub\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc_0\Documents\GitHub\Final-Project\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6AE0EB-0021-48BD-BA92-40D5B7EDD991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316FAAC-C72E-4B15-8AA4-3C2AAA6068E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{026CEDDE-4B72-462F-8419-AFA51682AC67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{026CEDDE-4B72-462F-8419-AFA51682AC67}"/>
   </bookViews>
   <sheets>
     <sheet name="OLS-Round1" sheetId="1" r:id="rId1"/>
@@ -888,91 +888,91 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1623,17 +1623,17 @@
       <c r="G4" s="4">
         <v>5.0612889782375999E-2</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="70" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1659,11 +1659,11 @@
       <c r="G5" s="14">
         <v>4.7934205214983101E-5</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1687,11 +1687,11 @@
       <c r="G6" s="4">
         <v>5.8662951980085698E-2</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1715,11 +1715,11 @@
       <c r="G7" s="13">
         <v>2.2614449664422999E-9</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1743,11 +1743,11 @@
       <c r="G8" s="4">
         <v>6.5047488622222399E-2</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1771,11 +1771,11 @@
       <c r="G9" s="13">
         <v>4.2738972541708904E-25</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1799,11 +1799,11 @@
       <c r="G10" s="10">
         <v>4.2520399505779197E-2</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1827,11 +1827,11 @@
       <c r="G11" s="14">
         <v>2.6272723658111799E-15</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1855,11 +1855,11 @@
       <c r="G12" s="4">
         <v>2.2312693319353501E-4</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1883,11 +1883,11 @@
       <c r="G13" s="10">
         <v>0.83412683137138599</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1911,11 +1911,11 @@
       <c r="G14" s="4">
         <v>0.79686943648300601</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1939,11 +1939,11 @@
       <c r="G15" s="10">
         <v>0.35060461925790998</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1967,11 +1967,11 @@
       <c r="G16" s="10">
         <v>0.47326897846200999</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1995,11 +1995,11 @@
       <c r="G17" s="4">
         <v>1.00546164426922E-3</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2023,11 +2023,11 @@
       <c r="G18" s="14">
         <v>1.1157322924659899E-9</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2051,11 +2051,11 @@
       <c r="G19" s="14">
         <v>8.6674378864798703E-8</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2608,17 +2608,17 @@
       <c r="G4" s="4">
         <v>5.0612889782375999E-2</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="70" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2644,11 +2644,11 @@
       <c r="G5" s="14">
         <v>4.7934205214983101E-5</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2672,11 +2672,11 @@
       <c r="G6" s="4">
         <v>5.8662951980085698E-2</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2700,11 +2700,11 @@
       <c r="G7" s="13">
         <v>2.2614449664422999E-9</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2728,11 +2728,11 @@
       <c r="G8" s="4">
         <v>6.5047488622222399E-2</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2756,11 +2756,11 @@
       <c r="G9" s="13">
         <v>4.2738972541708904E-25</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2784,11 +2784,11 @@
       <c r="G10" s="10">
         <v>4.2520399505779197E-2</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2812,11 +2812,11 @@
       <c r="G11" s="14">
         <v>2.6272723658111799E-15</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2840,11 +2840,11 @@
       <c r="G12" s="4">
         <v>2.2312693319353501E-4</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -2868,11 +2868,11 @@
       <c r="G13" s="10">
         <v>0.83412683137138599</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2896,11 +2896,11 @@
       <c r="G14" s="10">
         <v>0.79686943648300601</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2924,11 +2924,11 @@
       <c r="G15" s="10">
         <v>0.35060461925790998</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2952,11 +2952,11 @@
       <c r="G16" s="10">
         <v>0.47326897846200999</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2980,11 +2980,11 @@
       <c r="G17" s="4">
         <v>1.00546164426922E-3</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -3008,11 +3008,11 @@
       <c r="G18" s="13">
         <v>1.1157322924659899E-9</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -3036,11 +3036,11 @@
       <c r="G19" s="14">
         <v>8.6674378864798703E-8</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -3709,17 +3709,17 @@
       <c r="G4" s="14">
         <v>4.7934205214983101E-5</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="70" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3745,11 +3745,11 @@
       <c r="G5" s="4">
         <v>5.8662951980085698E-2</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -3773,11 +3773,11 @@
       <c r="G6" s="13">
         <v>2.2614449664422999E-9</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -3801,11 +3801,11 @@
       <c r="G7" s="4">
         <v>6.5047488622222399E-2</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3829,11 +3829,11 @@
       <c r="G8" s="14">
         <v>4.2738972541708904E-25</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3857,11 +3857,11 @@
       <c r="G9" s="10">
         <v>4.2520399505779197E-2</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3885,11 +3885,11 @@
       <c r="G10" s="13">
         <v>2.6272723658111799E-15</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -3913,11 +3913,11 @@
       <c r="G11" s="10">
         <v>2.2312693319353501E-4</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -3941,11 +3941,11 @@
       <c r="G12" s="10">
         <v>0.83412683137138599</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3969,11 +3969,11 @@
       <c r="G13" s="4">
         <v>0.79686943648300601</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -3997,11 +3997,11 @@
       <c r="G14" s="10">
         <v>0.35060461925790998</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -4025,11 +4025,11 @@
       <c r="G15" s="4">
         <v>0.47326897846200999</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -4053,11 +4053,11 @@
       <c r="G16" s="4">
         <v>1.00546164426922E-3</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -4081,11 +4081,11 @@
       <c r="G17" s="14">
         <v>1.1157322924659899E-9</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -4109,11 +4109,11 @@
       <c r="G18" s="14">
         <v>8.6674378864798703E-8</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -4137,11 +4137,11 @@
       <c r="G19" s="10">
         <v>0.37106019141493801</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -4662,7 +4662,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +4748,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="31">
-        <v>-2.4253541752000003</v>
+        <v>-2.4253541751999999</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>1</v>
@@ -4756,10 +4756,10 @@
       <c r="D3" s="31">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="60">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="60">
         <v>-5.1130000000000004</v>
       </c>
       <c r="G3" s="31">
@@ -4768,10 +4768,10 @@
       <c r="H3" s="2">
         <v>11.256278999999999</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="4">
         <v>5.0612889782375999E-2</v>
       </c>
@@ -4804,10 +4804,10 @@
       <c r="D4" s="31">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="60">
         <v>5.0609999999999999</v>
       </c>
       <c r="G4" s="31">
@@ -4816,24 +4816,24 @@
       <c r="H4" s="2">
         <v>34.737690999999998</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="46"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="14">
         <v>4.7934205214983101E-5</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43" t="s">
+      <c r="N4" s="70"/>
+      <c r="O4" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="70" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4862,23 +4862,23 @@
       <c r="H5" s="2">
         <v>75.580022999999997</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="4">
         <v>5.8662951980085698E-2</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>6</v>
       </c>
       <c r="B6" s="32">
-        <v>14.118984575999999</v>
+        <v>14.118984576000001</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>4</v>
@@ -4886,10 +4886,10 @@
       <c r="D6" s="32">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <v>7.1000000000000005E-5</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="68">
         <v>4.01</v>
       </c>
       <c r="G6" s="32">
@@ -4898,27 +4898,27 @@
       <c r="H6" s="28">
         <v>94.043244999999999</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="14">
         <v>2.2614449664422999E-9</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>17</v>
       </c>
       <c r="B7" s="31">
-        <v>-1.6175649590800003</v>
+        <v>-1.6175649590800001</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>5</v>
@@ -4926,10 +4926,10 @@
       <c r="D7" s="42">
         <v>-1.5760000000000002E-5</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="61">
         <v>5.4600000000000002E-6</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="60">
         <v>-2.8879999999999999</v>
       </c>
       <c r="G7" s="31">
@@ -4938,25 +4938,25 @@
       <c r="H7" s="2">
         <v>27.952086999999999</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="4">
         <v>6.5047488622222399E-2</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>4</v>
       </c>
       <c r="B8" s="34">
-        <v>25.249750174000003</v>
+        <v>25.249750173999999</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>6</v>
@@ -4964,10 +4964,10 @@
       <c r="D8" s="34">
         <v>1.496</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <v>0.11799999999999999</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="62">
         <v>12.683999999999999</v>
       </c>
       <c r="G8" s="34">
@@ -4976,20 +4976,20 @@
       <c r="H8" s="29">
         <v>26.249846000000002</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="50" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="14">
         <v>4.2738972541708904E-25</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -5016,16 +5016,16 @@
       <c r="H9" s="2">
         <v>111.738192</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="52"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="4">
         <v>0.79686943648300601</v>
       </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -5052,23 +5052,23 @@
       <c r="H10" s="27">
         <v>43.244205000000001</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="52"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="4">
         <v>0.47326897846200999</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>2</v>
       </c>
       <c r="B11" s="33">
-        <v>57.132254809604994</v>
+        <v>57.132254809605001</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>14</v>
@@ -5076,10 +5076,10 @@
       <c r="D11" s="33">
         <v>1.1034999999999999</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="64">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="64">
         <v>7.7290000000000001</v>
       </c>
       <c r="G11" s="33">
@@ -5088,94 +5088,94 @@
       <c r="H11" s="2">
         <v>438.16702800000002</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="51" t="s">
         <v>66</v>
       </c>
       <c r="K11" s="4">
         <v>1.00546164426922E-3</v>
       </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="66">
         <v>10.483119249194999</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="66">
         <v>0.29949999999999999</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="65">
         <v>4.7E-2</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="65">
         <v>6.4390000000000001</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="66">
         <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>22.372710999999999</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="50"/>
       <c r="K12" s="14">
         <v>8.6674378864798703E-8</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>5</v>
       </c>
-      <c r="B13" s="68">
-        <v>20.792304075168005</v>
-      </c>
-      <c r="C13" s="69" t="s">
+      <c r="B13" s="66">
+        <v>20.792304075168001</v>
+      </c>
+      <c r="C13" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="66">
         <v>0.59740000000000004</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="65">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="65">
         <v>6.5780000000000003</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="66">
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>81.720331999999999</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="49" t="s">
+      <c r="I13" s="51"/>
+      <c r="J13" s="47" t="s">
         <v>63</v>
       </c>
       <c r="K13" s="4">
         <v>1.4260733576762901E-2</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
@@ -5190,10 +5190,10 @@
       <c r="D14" s="32">
         <v>-0.85509999999999997</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="69">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="69">
         <v>-6.4480000000000004</v>
       </c>
       <c r="G14" s="32">
@@ -5202,20 +5202,20 @@
       <c r="H14" s="2">
         <v>28.273101</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="52" t="s">
+      <c r="J14" s="50" t="s">
         <v>74</v>
       </c>
       <c r="K14" s="14">
         <v>6.4955767242648701E-12</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
@@ -5230,10 +5230,10 @@
       <c r="D15" s="34">
         <v>0.59230000000000005</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="63">
         <v>0.156</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="63">
         <v>3.7970000000000002</v>
       </c>
       <c r="G15" s="34">
@@ -5242,20 +5242,20 @@
       <c r="H15" s="2">
         <v>13.284782</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="54" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="14">
         <v>4.9293369184083002E-8</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
@@ -5270,10 +5270,10 @@
       <c r="D16" s="32">
         <v>0.29049999999999998</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="69">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="69">
         <v>4.0940000000000003</v>
       </c>
       <c r="G16" s="32">
@@ -5282,20 +5282,20 @@
       <c r="H16" s="2">
         <v>67.062478999999996</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="56" t="s">
         <v>75</v>
       </c>
       <c r="K16" s="14">
         <v>2.1932490294403899E-29</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
@@ -5310,10 +5310,10 @@
       <c r="D17" s="34">
         <v>0.56830000000000003</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="63">
         <v>0.11899999999999999</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="63">
         <v>4.7560000000000002</v>
       </c>
       <c r="G17" s="34">
@@ -5322,18 +5322,18 @@
       <c r="H17" s="2">
         <v>46.141243000000003</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="56" t="s">
         <v>69</v>
       </c>
       <c r="K17" s="14"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -5360,16 +5360,16 @@
       <c r="H18" s="2">
         <v>1.6696150000000001</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="46"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="4">
         <v>0.69790693612322197</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -5384,10 +5384,10 @@
       <c r="D19" s="33">
         <v>-0.88329999999999997</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="64">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="64">
         <v>-6.4930000000000003</v>
       </c>
       <c r="G19" s="33">
@@ -5396,20 +5396,20 @@
       <c r="H19" s="2">
         <v>389.36500899999999</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="58" t="s">
         <v>59</v>
       </c>
       <c r="K19" s="4">
         <v>2.0003824754651501E-3</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -5436,16 +5436,16 @@
       <c r="H20" s="2">
         <v>10.135562999999999</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="2">
         <v>0.104540249645932</v>
       </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J21" s="15"/>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="61"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
